--- a/test/expect/complex.xlsx
+++ b/test/expect/complex.xlsx
@@ -4,9 +4,9 @@
   <fileVersion appName="JS XLSX"/>
   <workbookPr showObjects="all"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterateCount="100" iterate="false" iterateDelta="0.001" refMode="A1"/>
+  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
@@ -254,46 +254,46 @@
   <cellStyleXfs/>
   <cellXfs count="14">
     <xf>
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="0" borderId="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="1" fillId="2" borderId="2">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="1" fillId="2" borderId="2">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="3" borderId="3">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="4" borderId="4" applyNumberFormat="true">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="5" borderId="5" applyNumberFormat="true">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="3" borderId="6">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="4" borderId="7" applyNumberFormat="true">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="6" borderId="8" applyNumberFormat="true">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="5" borderId="8" applyNumberFormat="true">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="3" borderId="9">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="4" borderId="10" applyNumberFormat="true">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="false" applyFill="false" applyFont="false" applyAlignment="false" fontId="0" fillId="5" borderId="2" applyNumberFormat="true">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="1" fillId="2" borderId="2">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="1" fillId="2" borderId="2">
+      <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="3" borderId="3">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="3" borderId="6">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="3" borderId="9">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="1">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <numFmts count="1">
@@ -624,31 +624,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr filterMode="0">
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
-  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <dimension ref="A1:D10"/>
   <cols>
-    <col min="1" max="1" hidden="false" width="20" customWidth="1" collapsed="false" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="false" width="20" customWidth="1" collapsed="false" outlineLevel="0" style="1"/>
-    <col min="3" max="3" hidden="false" width="20" customWidth="1" collapsed="false" outlineLevel="0" style="1"/>
-    <col min="4" max="4" hidden="false" width="20" customWidth="1" collapsed="false" outlineLevel="0" style="1"/>
+    <col min="1" max="1" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="2" max="2" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="3" max="3" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="4" max="4" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="1" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -662,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="2" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
@@ -677,7 +677,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="3" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A3" t="s" s="7">
         <v>5</v>
       </c>
@@ -692,7 +692,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="4" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A4" t="s" s="7">
         <v>6</v>
       </c>
@@ -707,7 +707,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="5" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A5" t="s" s="7">
         <v>7</v>
       </c>
@@ -722,7 +722,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="6" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A6" t="s" s="7">
         <v>8</v>
       </c>
@@ -737,7 +737,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="7" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A7" t="s" s="7">
         <v>9</v>
       </c>
@@ -752,7 +752,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="8" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A8" t="s" s="7">
         <v>10</v>
       </c>
@@ -767,7 +767,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="9" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A9" t="s" s="7">
         <v>11</v>
       </c>
@@ -782,7 +782,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" customHeight="true" ht="22.677165360000004" outlineLevel="0">
+    <row r="10" customHeight="1" ht="22.677165360000004" outlineLevel="0">
       <c r="A10" t="s" s="11">
         <v>12</v>
       </c>

--- a/test/expect/complex.xlsx
+++ b/test/expect/complex.xlsx
@@ -253,46 +253,46 @@
   </borders>
   <cellStyleXfs/>
   <cellXfs count="14">
-    <xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="0" borderId="1">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="1" fillId="2" borderId="2">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="1" fillId="2" borderId="2">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="2" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="2" fontId="1" numFmtId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="3" borderId="3">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="3" borderId="6">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="0" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="3" borderId="9">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf numFmtId="164" applyBorder="0" applyFill="0" applyFont="0" applyAlignment="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="1">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="3" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="4" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="5" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="3" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="7" fillId="4" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="8" fillId="6" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="8" fillId="5" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="3" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="10" fillId="4" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="2" fillId="5" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>

--- a/test/expect/complex.xlsx
+++ b/test/expect/complex.xlsx
@@ -251,7 +251,6 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs/>
   <cellXfs count="14">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>

--- a/test/expect/complex.xlsx
+++ b/test/expect/complex.xlsx
@@ -6,10 +6,10 @@
   <bookViews>
     <workbookView showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
-  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
+  <calcPr iterateCount="100" iterate="0" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,6 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -295,9 +298,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
-  </numFmts>
 </styleSheet>
 </file>
 
@@ -626,20 +626,13 @@
   <sheetPr filterMode="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" defaultColWidth="0"/>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <dimension ref="A1:D10"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
     <col min="1" max="1" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
     <col min="2" max="2" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
@@ -797,5 +790,12 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/test/expect/complex.xlsx
+++ b/test/expect/complex.xlsx
@@ -114,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -122,12 +122,6 @@
       <bottom style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="ffded9d4"/>
       </left>
@@ -254,47 +248,44 @@
       </bottom>
     </border>
   </borders>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="2" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="2" fontId="1" numFmtId="0">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="3" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="4" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="5" fillId="5" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="3" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="7" fillId="4" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="8" fillId="6" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="8" fillId="5" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="3" fontId="0" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="10" fillId="4" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="2" fillId="5" fontId="0" numFmtId="164">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="3" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="3" fillId="4" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="4" fillId="5" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="3" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="6" fillId="4" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="7" fillId="6" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="7" fillId="5" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="3" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="9" fillId="4" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="1" applyProtection="0" borderId="1" fillId="5" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -634,157 +625,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col min="1" max="1" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="2" max="2" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="3" max="3" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
-    <col min="4" max="4" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="1"/>
+    <col min="1" max="1" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="2" max="2" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="3" max="3" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="0"/>
+    <col min="4" max="4" hidden="0" width="20" customWidth="1" collapsed="0" outlineLevel="0" style="0"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A2" t="s" s="4">
+      <c r="A2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>200</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>90</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>B2-C2</f>
         <v/>
       </c>
     </row>
     <row r="3" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>200</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>32</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <f>B3-C3</f>
         <v/>
       </c>
     </row>
     <row r="4" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>350</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>205.75</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <f>B4-C4</f>
         <v/>
       </c>
     </row>
     <row r="5" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>300</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>250</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <f>B5-C5</f>
         <v/>
       </c>
     </row>
     <row r="6" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A6" t="s" s="7">
+      <c r="A6" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>100</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>35</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <f>B6-C6</f>
         <v/>
       </c>
     </row>
     <row r="7" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A7" t="s" s="7">
+      <c r="A7" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>300</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>80</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f>B7-C7</f>
         <v/>
       </c>
     </row>
     <row r="8" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A8" t="s" s="7">
+      <c r="A8" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>500</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>350</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f>B8-C8</f>
         <v/>
       </c>
     </row>
     <row r="9" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A9" t="s" s="7">
+      <c r="A9" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>200</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>100</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f>B9-C9</f>
         <v/>
       </c>
     </row>
     <row r="10" customHeight="1" ht="22.677165360000004" outlineLevel="0">
-      <c r="A10" t="s" s="11">
+      <c r="A10" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>50</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>60</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f>B10-C10</f>
         <v/>
       </c>
